--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>Reports</t>
   </si>
@@ -177,9 +177,6 @@
     <t>NyuSoft</t>
   </si>
   <si>
-    <t>sent follow request to hr</t>
-  </si>
-  <si>
     <t>contact@honeycombsoftwares.com</t>
   </si>
   <si>
@@ -208,6 +205,33 @@
   </si>
   <si>
     <t>CMExpertise</t>
+  </si>
+  <si>
+    <t>sent follow request to hr/messaged her</t>
+  </si>
+  <si>
+    <t>2/1/2026,5/1/2026</t>
+  </si>
+  <si>
+    <t>Elightwalk</t>
+  </si>
+  <si>
+    <t>mail, message to hr on linkedin</t>
+  </si>
+  <si>
+    <t>admin@elightwalk.com</t>
+  </si>
+  <si>
+    <t>Addact Technologies</t>
+  </si>
+  <si>
+    <t>message on linkedin for referral</t>
+  </si>
+  <si>
+    <t>shiv technolabs</t>
+  </si>
+  <si>
+    <t>Brainsquare tech</t>
   </si>
 </sst>
 </file>
@@ -602,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -616,7 +640,7 @@
     <col min="6" max="6" width="27.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="3"/>
   </cols>
@@ -891,18 +915,18 @@
         <v>52</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="9">
-        <v>46054</v>
+        <v>63</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9">
         <v>46054</v>
@@ -910,10 +934,10 @@
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="I20" s="9">
         <v>46054</v>
@@ -921,13 +945,13 @@
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>31</v>
@@ -938,7 +962,7 @@
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9">
         <v>46054</v>
@@ -949,7 +973,7 @@
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9">
         <v>46054</v>
@@ -960,7 +984,7 @@
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>38</v>
@@ -970,6 +994,53 @@
       </c>
       <c r="I24" s="9">
         <v>46054</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10">
+      <c r="F25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="9">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10">
+      <c r="F26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="9">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10">
+      <c r="F27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="9">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10">
+      <c r="F28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="9">
+        <v>46143</v>
       </c>
     </row>
   </sheetData>
